--- a/natmiOut/OldD7/LR-pairs_lrc2p/Col4a1-Itgav.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Col4a1-Itgav.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>199.933229368471</v>
+        <v>212.4076363333333</v>
       </c>
       <c r="H2">
-        <v>199.933229368471</v>
+        <v>637.222909</v>
       </c>
       <c r="I2">
-        <v>0.5143735226484725</v>
+        <v>0.5080632835800084</v>
       </c>
       <c r="J2">
-        <v>0.5143735226484725</v>
+        <v>0.5080632835800084</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.835860302987</v>
+        <v>13.441269</v>
       </c>
       <c r="N2">
-        <v>10.835860302987</v>
+        <v>40.323807</v>
       </c>
       <c r="O2">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481231</v>
       </c>
       <c r="P2">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481232</v>
       </c>
       <c r="Q2">
-        <v>2166.448543361809</v>
+        <v>2855.028177610507</v>
       </c>
       <c r="R2">
-        <v>2166.448543361809</v>
+        <v>25695.25359849456</v>
       </c>
       <c r="S2">
-        <v>0.04054017627254883</v>
+        <v>0.04558893572569581</v>
       </c>
       <c r="T2">
-        <v>0.04054017627254883</v>
+        <v>0.04558893572569582</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>199.933229368471</v>
+        <v>212.4076363333333</v>
       </c>
       <c r="H3">
-        <v>199.933229368471</v>
+        <v>637.222909</v>
       </c>
       <c r="I3">
-        <v>0.5143735226484725</v>
+        <v>0.5080632835800084</v>
       </c>
       <c r="J3">
-        <v>0.5143735226484725</v>
+        <v>0.5080632835800084</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>54.5495951744975</v>
+        <v>54.711535</v>
       </c>
       <c r="N3">
-        <v>54.5495951744975</v>
+        <v>164.134605</v>
       </c>
       <c r="O3">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="P3">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="Q3">
-        <v>10906.27672398005</v>
+        <v>11621.14782951844</v>
       </c>
       <c r="R3">
-        <v>10906.27672398005</v>
+        <v>104590.3304656659</v>
       </c>
       <c r="S3">
-        <v>0.2040862600785563</v>
+        <v>0.1855658608252805</v>
       </c>
       <c r="T3">
-        <v>0.2040862600785563</v>
+        <v>0.1855658608252805</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>199.933229368471</v>
+        <v>212.4076363333333</v>
       </c>
       <c r="H4">
-        <v>199.933229368471</v>
+        <v>637.222909</v>
       </c>
       <c r="I4">
-        <v>0.5143735226484725</v>
+        <v>0.5080632835800084</v>
       </c>
       <c r="J4">
-        <v>0.5143735226484725</v>
+        <v>0.5080632835800084</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>55.6690220757149</v>
+        <v>63.67711</v>
       </c>
       <c r="N4">
-        <v>55.6690220757149</v>
+        <v>191.03133</v>
       </c>
       <c r="O4">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800914</v>
       </c>
       <c r="P4">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800915</v>
       </c>
       <c r="Q4">
-        <v>11130.08735938238</v>
+        <v>13525.50442363766</v>
       </c>
       <c r="R4">
-        <v>11130.08735938238</v>
+        <v>121729.539812739</v>
       </c>
       <c r="S4">
-        <v>0.2082743690639662</v>
+        <v>0.2159745240563269</v>
       </c>
       <c r="T4">
-        <v>0.2082743690639662</v>
+        <v>0.215974524056327</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>199.933229368471</v>
+        <v>212.4076363333333</v>
       </c>
       <c r="H5">
-        <v>199.933229368471</v>
+        <v>637.222909</v>
       </c>
       <c r="I5">
-        <v>0.5143735226484725</v>
+        <v>0.5080632835800084</v>
       </c>
       <c r="J5">
-        <v>0.5143735226484725</v>
+        <v>0.5080632835800084</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.4308554533149</v>
+        <v>17.96553866666667</v>
       </c>
       <c r="N5">
-        <v>16.4308554533149</v>
+        <v>53.896616</v>
       </c>
       <c r="O5">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="P5">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="Q5">
-        <v>3285.073992067801</v>
+        <v>3816.017603641772</v>
       </c>
       <c r="R5">
-        <v>3285.073992067801</v>
+        <v>34344.15843277594</v>
       </c>
       <c r="S5">
-        <v>0.06147271723340116</v>
+        <v>0.06093396297270514</v>
       </c>
       <c r="T5">
-        <v>0.06147271723340116</v>
+        <v>0.06093396297270515</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>159.73164665475</v>
+        <v>161.9384456666667</v>
       </c>
       <c r="H6">
-        <v>159.73164665475</v>
+        <v>485.815337</v>
       </c>
       <c r="I6">
-        <v>0.4109458444090013</v>
+        <v>0.3873447295187379</v>
       </c>
       <c r="J6">
-        <v>0.4109458444090013</v>
+        <v>0.3873447295187379</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.835860302987</v>
+        <v>13.441269</v>
       </c>
       <c r="N6">
-        <v>10.835860302987</v>
+        <v>40.323807</v>
       </c>
       <c r="O6">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481231</v>
       </c>
       <c r="P6">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481232</v>
       </c>
       <c r="Q6">
-        <v>1730.829809116952</v>
+        <v>2176.658209647551</v>
       </c>
       <c r="R6">
-        <v>1730.829809116952</v>
+        <v>19589.92388682796</v>
       </c>
       <c r="S6">
-        <v>0.03238855858099409</v>
+        <v>0.03475676071942707</v>
       </c>
       <c r="T6">
-        <v>0.03238855858099409</v>
+        <v>0.03475676071942708</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>159.73164665475</v>
+        <v>161.9384456666667</v>
       </c>
       <c r="H7">
-        <v>159.73164665475</v>
+        <v>485.815337</v>
       </c>
       <c r="I7">
-        <v>0.4109458444090013</v>
+        <v>0.3873447295187379</v>
       </c>
       <c r="J7">
-        <v>0.4109458444090013</v>
+        <v>0.3873447295187379</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>54.5495951744975</v>
+        <v>54.711535</v>
       </c>
       <c r="N7">
-        <v>54.5495951744975</v>
+        <v>164.134605</v>
       </c>
       <c r="O7">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="P7">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="Q7">
-        <v>8713.296661572489</v>
+        <v>8859.900937937431</v>
       </c>
       <c r="R7">
-        <v>8713.296661572489</v>
+        <v>79739.10844143688</v>
       </c>
       <c r="S7">
-        <v>0.1630496065357816</v>
+        <v>0.1414744196093062</v>
       </c>
       <c r="T7">
-        <v>0.1630496065357816</v>
+        <v>0.1414744196093062</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>159.73164665475</v>
+        <v>161.9384456666667</v>
       </c>
       <c r="H8">
-        <v>159.73164665475</v>
+        <v>485.815337</v>
       </c>
       <c r="I8">
-        <v>0.4109458444090013</v>
+        <v>0.3873447295187379</v>
       </c>
       <c r="J8">
-        <v>0.4109458444090013</v>
+        <v>0.3873447295187379</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>55.6690220757149</v>
+        <v>63.67711</v>
       </c>
       <c r="N8">
-        <v>55.6690220757149</v>
+        <v>191.03133</v>
       </c>
       <c r="O8">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800914</v>
       </c>
       <c r="P8">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800915</v>
       </c>
       <c r="Q8">
-        <v>8892.104563813569</v>
+        <v>10311.77221794536</v>
       </c>
       <c r="R8">
-        <v>8892.104563813569</v>
+        <v>92805.9499615082</v>
       </c>
       <c r="S8">
-        <v>0.1663955913264148</v>
+        <v>0.1646578217856243</v>
       </c>
       <c r="T8">
-        <v>0.1663955913264148</v>
+        <v>0.1646578217856243</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>159.73164665475</v>
+        <v>161.9384456666667</v>
       </c>
       <c r="H9">
-        <v>159.73164665475</v>
+        <v>485.815337</v>
       </c>
       <c r="I9">
-        <v>0.4109458444090013</v>
+        <v>0.3873447295187379</v>
       </c>
       <c r="J9">
-        <v>0.4109458444090013</v>
+        <v>0.3873447295187379</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>16.4308554533149</v>
+        <v>17.96553866666667</v>
       </c>
       <c r="N9">
-        <v>16.4308554533149</v>
+        <v>53.896616</v>
       </c>
       <c r="O9">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="P9">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="Q9">
-        <v>2624.527597504168</v>
+        <v>2909.311407244399</v>
       </c>
       <c r="R9">
-        <v>2624.527597504168</v>
+        <v>26183.80266519959</v>
       </c>
       <c r="S9">
-        <v>0.04911208796581091</v>
+        <v>0.04645572740438036</v>
       </c>
       <c r="T9">
-        <v>0.04911208796581091</v>
+        <v>0.04645572740438036</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.317897560129234</v>
+        <v>0.338549</v>
       </c>
       <c r="H10">
-        <v>0.317897560129234</v>
+        <v>1.015647</v>
       </c>
       <c r="I10">
-        <v>0.0008178634855323109</v>
+        <v>0.0008097840527861261</v>
       </c>
       <c r="J10">
-        <v>0.0008178634855323109</v>
+        <v>0.0008097840527861261</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.835860302987</v>
+        <v>13.441269</v>
       </c>
       <c r="N10">
-        <v>10.835860302987</v>
+        <v>40.323807</v>
       </c>
       <c r="O10">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481231</v>
       </c>
       <c r="P10">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481232</v>
       </c>
       <c r="Q10">
-        <v>3.444693552220789</v>
+        <v>4.550528178681</v>
       </c>
       <c r="R10">
-        <v>3.444693552220789</v>
+        <v>40.954753608129</v>
       </c>
       <c r="S10">
-        <v>6.445963567417217E-05</v>
+        <v>7.26625881603321E-05</v>
       </c>
       <c r="T10">
-        <v>6.445963567417217E-05</v>
+        <v>7.266258816033211E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.317897560129234</v>
+        <v>0.338549</v>
       </c>
       <c r="H11">
-        <v>0.317897560129234</v>
+        <v>1.015647</v>
       </c>
       <c r="I11">
-        <v>0.0008178634855323109</v>
+        <v>0.0008097840527861261</v>
       </c>
       <c r="J11">
-        <v>0.0008178634855323109</v>
+        <v>0.0008097840527861261</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>54.5495951744975</v>
+        <v>54.711535</v>
       </c>
       <c r="N11">
-        <v>54.5495951744975</v>
+        <v>164.134605</v>
       </c>
       <c r="O11">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="P11">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="Q11">
-        <v>17.34118321201019</v>
+        <v>18.522535462715</v>
       </c>
       <c r="R11">
-        <v>17.34118321201019</v>
+        <v>166.702819164435</v>
       </c>
       <c r="S11">
-        <v>0.0003245009563433007</v>
+        <v>0.0002957668457736092</v>
       </c>
       <c r="T11">
-        <v>0.0003245009563433007</v>
+        <v>0.0002957668457736092</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.317897560129234</v>
+        <v>0.338549</v>
       </c>
       <c r="H12">
-        <v>0.317897560129234</v>
+        <v>1.015647</v>
       </c>
       <c r="I12">
-        <v>0.0008178634855323109</v>
+        <v>0.0008097840527861261</v>
       </c>
       <c r="J12">
-        <v>0.0008178634855323109</v>
+        <v>0.0008097840527861261</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>55.6690220757149</v>
+        <v>63.67711</v>
       </c>
       <c r="N12">
-        <v>55.6690220757149</v>
+        <v>191.03133</v>
       </c>
       <c r="O12">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800914</v>
       </c>
       <c r="P12">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800915</v>
       </c>
       <c r="Q12">
-        <v>17.69704629265023</v>
+        <v>21.55782191339</v>
       </c>
       <c r="R12">
-        <v>17.69704629265023</v>
+        <v>194.02039722051</v>
       </c>
       <c r="S12">
-        <v>0.0003311601276687606</v>
+        <v>0.0003442341358669456</v>
       </c>
       <c r="T12">
-        <v>0.0003311601276687606</v>
+        <v>0.0003442341358669456</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.317897560129234</v>
+        <v>0.338549</v>
       </c>
       <c r="H13">
-        <v>0.317897560129234</v>
+        <v>1.015647</v>
       </c>
       <c r="I13">
-        <v>0.0008178634855323109</v>
+        <v>0.0008097840527861261</v>
       </c>
       <c r="J13">
-        <v>0.0008178634855323109</v>
+        <v>0.0008097840527861261</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.4308554533149</v>
+        <v>17.96553866666667</v>
       </c>
       <c r="N13">
-        <v>16.4308554533149</v>
+        <v>53.896616</v>
       </c>
       <c r="O13">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="P13">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="Q13">
-        <v>5.223328859444926</v>
+        <v>6.082215150061334</v>
       </c>
       <c r="R13">
-        <v>5.223328859444926</v>
+        <v>54.739936350552</v>
       </c>
       <c r="S13">
-        <v>9.774276584607739E-05</v>
+        <v>9.71204829852391E-05</v>
       </c>
       <c r="T13">
-        <v>9.774276584607739E-05</v>
+        <v>9.71204829852391E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>28.709918721318</v>
+        <v>43.38855633333333</v>
       </c>
       <c r="H14">
-        <v>28.709918721318</v>
+        <v>130.165669</v>
       </c>
       <c r="I14">
-        <v>0.07386276945699397</v>
+        <v>0.1037822028484675</v>
       </c>
       <c r="J14">
-        <v>0.07386276945699397</v>
+        <v>0.1037822028484675</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.835860302987</v>
+        <v>13.441269</v>
       </c>
       <c r="N14">
-        <v>10.835860302987</v>
+        <v>40.323807</v>
       </c>
       <c r="O14">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481231</v>
       </c>
       <c r="P14">
-        <v>0.07881466383380382</v>
+        <v>0.08973082133481232</v>
       </c>
       <c r="Q14">
-        <v>311.096668574313</v>
+        <v>583.197257197987</v>
       </c>
       <c r="R14">
-        <v>311.096668574313</v>
+        <v>5248.775314781884</v>
       </c>
       <c r="S14">
-        <v>0.005821469344586732</v>
+        <v>0.009312462301529082</v>
       </c>
       <c r="T14">
-        <v>0.005821469344586732</v>
+        <v>0.009312462301529083</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>28.709918721318</v>
+        <v>43.38855633333333</v>
       </c>
       <c r="H15">
-        <v>28.709918721318</v>
+        <v>130.165669</v>
       </c>
       <c r="I15">
-        <v>0.07386276945699397</v>
+        <v>0.1037822028484675</v>
       </c>
       <c r="J15">
-        <v>0.07386276945699397</v>
+        <v>0.1037822028484675</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>54.5495951744975</v>
+        <v>54.711535</v>
       </c>
       <c r="N15">
-        <v>54.5495951744975</v>
+        <v>164.134605</v>
       </c>
       <c r="O15">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="P15">
-        <v>0.3967666512609955</v>
+        <v>0.3652416280068742</v>
       </c>
       <c r="Q15">
-        <v>1566.114443740624</v>
+        <v>2373.854518430638</v>
       </c>
       <c r="R15">
-        <v>1566.114443740624</v>
+        <v>21364.69066587575</v>
       </c>
       <c r="S15">
-        <v>0.02930628369031444</v>
+        <v>0.03790558072651391</v>
       </c>
       <c r="T15">
-        <v>0.02930628369031444</v>
+        <v>0.03790558072651391</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>28.709918721318</v>
+        <v>43.38855633333333</v>
       </c>
       <c r="H16">
-        <v>28.709918721318</v>
+        <v>130.165669</v>
       </c>
       <c r="I16">
-        <v>0.07386276945699397</v>
+        <v>0.1037822028484675</v>
       </c>
       <c r="J16">
-        <v>0.07386276945699397</v>
+        <v>0.1037822028484675</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>55.6690220757149</v>
+        <v>63.67711</v>
       </c>
       <c r="N16">
-        <v>55.6690220757149</v>
+        <v>191.03133</v>
       </c>
       <c r="O16">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800914</v>
       </c>
       <c r="P16">
-        <v>0.4049088063311975</v>
+        <v>0.4250937452800915</v>
       </c>
       <c r="Q16">
-        <v>1598.253099089032</v>
+        <v>2762.857874378863</v>
       </c>
       <c r="R16">
-        <v>1598.253099089032</v>
+        <v>24865.72086940977</v>
       </c>
       <c r="S16">
-        <v>0.02990768581314786</v>
+        <v>0.0441171653022732</v>
       </c>
       <c r="T16">
-        <v>0.02990768581314786</v>
+        <v>0.04411716530227321</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>28.709918721318</v>
+        <v>43.38855633333333</v>
       </c>
       <c r="H17">
-        <v>28.709918721318</v>
+        <v>130.165669</v>
       </c>
       <c r="I17">
-        <v>0.07386276945699397</v>
+        <v>0.1037822028484675</v>
       </c>
       <c r="J17">
-        <v>0.07386276945699397</v>
+        <v>0.1037822028484675</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>16.4308554533149</v>
+        <v>17.96553866666667</v>
       </c>
       <c r="N17">
-        <v>16.4308554533149</v>
+        <v>53.896616</v>
       </c>
       <c r="O17">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="P17">
-        <v>0.1195098785740031</v>
+        <v>0.119933805378222</v>
       </c>
       <c r="Q17">
-        <v>471.7285245863955</v>
+        <v>779.4987864973449</v>
       </c>
       <c r="R17">
-        <v>471.7285245863955</v>
+        <v>7015.489078476105</v>
       </c>
       <c r="S17">
-        <v>0.00882733060894493</v>
+        <v>0.01244699451815125</v>
       </c>
       <c r="T17">
-        <v>0.00882733060894493</v>
+        <v>0.01244699451815125</v>
       </c>
     </row>
   </sheetData>
